--- a/02_MasterWifoMannheim/99_Backup/Course91.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course91.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD32051265F5928115923107070E7FEEE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5E79C60-BB45-4126-B941-1722B265CB2C}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 540 Management of Enterprise Systems</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Enterprise pre-packaged industry best practices embedded in standardized product software and target large-scale integration of data and business processes across all company's functional areas and beyond company borderlines. Enterprise Systems strongly interplay with work practices of individual employees as well as organizational structures shaping and being shaped by individuals' behavior. The the company. As such, they impact multiple levels of a company, ranging from the individual employee to groups to the entire organization and even its associated network. As critical as the ability to manage these ES is to most businesses, as challenging it is as well. This module is designed to provide a comprehensive insight into theoretical foundations, concepts, tools, and current practice of ES. The lecture is complemented with exercises and a case study. Students get the opportunity to collect hands-on experiences with commercial software products and analyze and propose solutions for a specific allowing them to build up first-hand experience with this important aspect for managing businesses successfully.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The students will  understand basic concepts and types of Enterprise Systems,  understand key characteristics of software products (e.g. Enterprise Resource Planning, Business Intelligence or Collaboration) on which ES are built on,  understand the ES lifecycle including a development, implementation, and post-implementation phase,  get practical insights into the real-world ES.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:540 has no max. number of participants, an enrollment via the student portal is necessary for getting access to the course material. You will be directly admitted.</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Case Study 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Case Study and written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Hartmut Höhle</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,144 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="214.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 540 Management of Enterprise Systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Enterprise pre-packaged industry best practices embedded in standardized product software and target large-scale integration of data and business processes across all company's functional areas and beyond company borderlines. Enterprise Systems strongly interplay with work practices of individual employees as well as organizational structures shaping and being shaped by individuals' behavior. The the company. As such, they impact multiple levels of a company, ranging from the individual employee to groups to the entire organization and even its associated network. As critical as the ability to manage these ES is to most businesses, as challenging it is as well. This module is designed to provide a comprehensive insight into theoretical foundations, concepts, tools, and current practice of ES. The lecture is complemented with exercises and a case study. Students get the opportunity to collect hands-on experiences with commercial software products and analyze and propose solutions for a specific allowing them to build up first-hand experience with this important aspect for managing businesses successfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The students will  understand basic concepts and types of Enterprise Systems,  understand key characteristics of software products (e.g. Enterprise Resource Planning, Business Intelligence or Collaboration) on which ES are built on,  understand the ES lifecycle including a development, implementation, and post-implementation phase,  get practical insights into the real-world ES.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:540 has no max. number of participants, an enrollment via the student portal is necessary for getting access to the course material. You will be directly admitted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Case Study 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Case Study and written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Hartmut Höhle</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
